--- a/sputnik/personal/ee/177ee.xlsx
+++ b/sputnik/personal/ee/177ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -16,23 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -40,16 +31,34 @@
   </si>
   <si>
     <t xml:space="preserve">кВт/ч к оплате </t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>остаток</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,10 +125,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -129,9 +138,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -144,10 +151,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -157,51 +163,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -262,7 +238,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -294,10 +270,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,7 +304,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -505,349 +479,239 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="51" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>43261</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A2" s="3">
+        <v>43379</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>3590</v>
-      </c>
-      <c r="D2" s="5"/>
+      <c r="C2" s="4">
+        <v>4478</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>43295</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A3" s="3">
+        <v>43641</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
-        <v>3812</v>
-      </c>
-      <c r="D3" s="3">
-        <f t="shared" ref="D3:D9" si="0">SUM(C3,-C2)</f>
-        <v>222</v>
-      </c>
-      <c r="E3" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F3" s="20">
-        <f t="shared" ref="F3:F8" si="1">PRODUCT(D3,E3)</f>
-        <v>999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43330</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="C3" s="2">
+        <v>4678</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D6" si="0">SUM(C3,-C2)</f>
+        <v>200</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4.57</v>
+      </c>
+      <c r="F3" s="7">
+        <f t="shared" ref="F3:F4" si="1">PRODUCT(D3,E3)</f>
+        <v>914</v>
+      </c>
+      <c r="G3" s="8">
+        <v>914</v>
+      </c>
+      <c r="H3" s="8">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A4" s="3">
+        <v>43670</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5">
-        <v>4256</v>
-      </c>
-      <c r="D4" s="3">
-        <f t="shared" si="0"/>
-        <v>444</v>
-      </c>
-      <c r="E4" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F4" s="20">
-        <f t="shared" si="1"/>
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>43379</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>4478</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>222</v>
-      </c>
-      <c r="E5" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F5" s="20">
-        <f t="shared" si="1"/>
-        <v>999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
-        <v>43641</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="18">
-        <v>4678</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C4" s="2">
+        <v>4878</v>
+      </c>
+      <c r="D4" s="2">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="E6" s="21">
-        <v>4.57</v>
-      </c>
-      <c r="F6" s="20">
+      <c r="E4" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F4" s="7">
         <f t="shared" si="1"/>
+        <v>898</v>
+      </c>
+      <c r="G4" s="8">
+        <v>898</v>
+      </c>
+      <c r="H4" s="8">
         <v>914</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
-        <v>43670</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    <row r="5" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A5" s="3">
+        <v>43700</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="18">
-        <v>4878</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C5" s="2">
+        <v>5081</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>203</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F5" s="7">
+        <f>PRODUCT(D5,E5)</f>
+        <v>911.47</v>
+      </c>
+      <c r="G5" s="8">
+        <v>911.47</v>
+      </c>
+      <c r="H5" s="8">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A6" s="3">
+        <v>43733</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5281</v>
+      </c>
+      <c r="D6" s="2">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E6" s="5">
         <v>4.49</v>
       </c>
-      <c r="F7" s="20">
-        <f t="shared" si="1"/>
+      <c r="F6" s="7">
+        <f>PRODUCT(D6,E6)</f>
         <v>898</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
-        <v>43700</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="G6" s="8">
+        <v>898</v>
+      </c>
+      <c r="H6" s="8">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3">
+        <v>43733</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="18">
-        <v>5081</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>203</v>
-      </c>
-      <c r="E8" s="21">
+      <c r="C7" s="2">
+        <v>5481</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7" si="2">SUM(C7,-C6)</f>
+        <v>200</v>
+      </c>
+      <c r="E7" s="5">
         <v>4.49</v>
       </c>
-      <c r="F8" s="20">
-        <f t="shared" si="1"/>
-        <v>911.47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
-        <v>43733</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="18">
-        <v>5278</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>197</v>
-      </c>
-      <c r="E9" s="21">
-        <v>4.49</v>
-      </c>
-      <c r="F9" s="20">
-        <f>PRODUCT(D9,E9)</f>
-        <v>884.53000000000009</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="F7" s="7">
+        <f>PRODUCT(D7,E7)</f>
+        <v>898</v>
+      </c>
+      <c r="G7" s="8">
+        <v>898</v>
+      </c>
+      <c r="H7" s="8">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="8">
+        <f>SUM(G3:G7)</f>
+        <v>4519.47</v>
+      </c>
+      <c r="H8" s="8">
+        <f>SUM(H3:H7)</f>
+        <v>4538</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="F9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8">
+        <f>SUM(H8,-G8)</f>
+        <v>18.529999999999745</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -857,12 +721,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -871,12 +735,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/177ee.xlsx
+++ b/sputnik/personal/ee/177ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -54,11 +54,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +89,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -151,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -178,6 +185,7 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -238,7 +246,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,9 +278,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -304,6 +313,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -479,17 +489,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G4" sqref="G4:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
@@ -503,7 +513,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="51" customHeight="1">
+    <row r="1" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -529,7 +539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1">
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43379</v>
       </c>
@@ -545,7 +555,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43641</v>
       </c>
@@ -573,7 +583,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1">
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43670</v>
       </c>
@@ -594,14 +604,14 @@
         <f t="shared" si="1"/>
         <v>898</v>
       </c>
-      <c r="G4" s="8">
-        <v>898</v>
-      </c>
-      <c r="H4" s="8">
+      <c r="G4" s="12">
+        <v>898</v>
+      </c>
+      <c r="H4" s="12">
         <v>914</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1">
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43700</v>
       </c>
@@ -629,7 +639,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1">
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43733</v>
       </c>
@@ -657,7 +667,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43733</v>
       </c>
@@ -685,31 +695,59 @@
         <v>898</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>43977</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5581</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" ref="D8" si="3">SUM(C8,-C7)</f>
+        <v>100</v>
+      </c>
+      <c r="E8" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="7">
+        <f>PRODUCT(D8,E8)</f>
+        <v>449</v>
+      </c>
+      <c r="G8" s="8">
+        <v>898</v>
+      </c>
+      <c r="H8" s="8">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G9" s="8">
         <f>SUM(G3:G7)</f>
         <v>4519.47</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H9" s="8">
         <f>SUM(H3:H7)</f>
         <v>4538</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="F9" s="11" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8">
-        <f>SUM(H8,-G8)</f>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8">
+        <f>SUM(H9,-G9)</f>
         <v>18.529999999999745</v>
       </c>
     </row>
@@ -721,12 +759,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -735,12 +773,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/177ee.xlsx
+++ b/sputnik/personal/ee/177ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -493,10 +493,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:H4"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -723,32 +723,60 @@
         <v>898</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>44008</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5735</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" ref="D9" si="4">SUM(C9,-C8)</f>
+        <v>154</v>
+      </c>
+      <c r="E9" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F9" s="7">
+        <f>PRODUCT(D9,E9)</f>
+        <v>691.46</v>
+      </c>
+      <c r="G9" s="8">
+        <v>691.46</v>
+      </c>
+      <c r="H9" s="8">
+        <v>673.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="8">
-        <f>SUM(G3:G7)</f>
-        <v>4519.47</v>
-      </c>
-      <c r="H9" s="8">
-        <f>SUM(H3:H7)</f>
-        <v>4538</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="11" t="s">
+      <c r="G10" s="8">
+        <f>SUM(G3:G9)</f>
+        <v>6108.93</v>
+      </c>
+      <c r="H10" s="8">
+        <f>SUM(H3:H9)</f>
+        <v>6109.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8">
-        <f>SUM(H9,-G9)</f>
-        <v>18.529999999999745</v>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8">
+        <f>SUM(H10,-G10)</f>
+        <v>0.56999999999970896</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/177ee.xlsx
+++ b/sputnik/personal/ee/177ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -493,10 +493,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -751,31 +751,59 @@
         <v>673.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>44039</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5835</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" ref="D10" si="5">SUM(C10,-C9)</f>
+        <v>100</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="7">
+        <f>PRODUCT(D10,E10)</f>
+        <v>471</v>
+      </c>
+      <c r="G10" s="8">
+        <v>471</v>
+      </c>
+      <c r="H10" s="8">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="8">
-        <f>SUM(G3:G9)</f>
-        <v>6108.93</v>
-      </c>
-      <c r="H10" s="8">
-        <f>SUM(H3:H9)</f>
-        <v>6109.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="11" t="s">
+      <c r="G11" s="8">
+        <f>SUM(G3:G10)</f>
+        <v>6579.93</v>
+      </c>
+      <c r="H11" s="8">
+        <f>SUM(H3:H10)</f>
+        <v>6580.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8">
-        <f>SUM(H10,-G10)</f>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8">
+        <f>SUM(H11,-G11)</f>
         <v>0.56999999999970896</v>
       </c>
     </row>

--- a/sputnik/personal/ee/177ee.xlsx
+++ b/sputnik/personal/ee/177ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -493,10 +493,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -629,7 +629,7 @@
         <v>4.49</v>
       </c>
       <c r="F5" s="7">
-        <f>PRODUCT(D5,E5)</f>
+        <f t="shared" ref="F5:F10" si="2">PRODUCT(D5,E5)</f>
         <v>911.47</v>
       </c>
       <c r="G5" s="8">
@@ -657,7 +657,7 @@
         <v>4.49</v>
       </c>
       <c r="F6" s="7">
-        <f>PRODUCT(D6,E6)</f>
+        <f t="shared" si="2"/>
         <v>898</v>
       </c>
       <c r="G6" s="8">
@@ -678,14 +678,14 @@
         <v>5481</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" ref="D7" si="2">SUM(C7,-C6)</f>
+        <f t="shared" ref="D7" si="3">SUM(C7,-C6)</f>
         <v>200</v>
       </c>
       <c r="E7" s="5">
         <v>4.49</v>
       </c>
       <c r="F7" s="7">
-        <f>PRODUCT(D7,E7)</f>
+        <f t="shared" si="2"/>
         <v>898</v>
       </c>
       <c r="G7" s="8">
@@ -706,14 +706,14 @@
         <v>5581</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" ref="D8" si="3">SUM(C8,-C7)</f>
+        <f t="shared" ref="D8" si="4">SUM(C8,-C7)</f>
         <v>100</v>
       </c>
       <c r="E8" s="5">
         <v>4.49</v>
       </c>
       <c r="F8" s="7">
-        <f>PRODUCT(D8,E8)</f>
+        <f t="shared" si="2"/>
         <v>449</v>
       </c>
       <c r="G8" s="8">
@@ -734,14 +734,14 @@
         <v>5735</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" ref="D9" si="4">SUM(C9,-C8)</f>
+        <f t="shared" ref="D9" si="5">SUM(C9,-C8)</f>
         <v>154</v>
       </c>
       <c r="E9" s="5">
         <v>4.49</v>
       </c>
       <c r="F9" s="7">
-        <f>PRODUCT(D9,E9)</f>
+        <f t="shared" si="2"/>
         <v>691.46</v>
       </c>
       <c r="G9" s="8">
@@ -762,14 +762,14 @@
         <v>5835</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" ref="D10" si="5">SUM(C10,-C9)</f>
+        <f t="shared" ref="D10" si="6">SUM(C10,-C9)</f>
         <v>100</v>
       </c>
       <c r="E10" s="5">
         <v>4.71</v>
       </c>
       <c r="F10" s="7">
-        <f>PRODUCT(D10,E10)</f>
+        <f t="shared" si="2"/>
         <v>471</v>
       </c>
       <c r="G10" s="8">
@@ -779,31 +779,59 @@
         <v>471</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>44068</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6035</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" ref="D11" si="7">SUM(C11,-C10)</f>
+        <v>200</v>
+      </c>
+      <c r="E11" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" ref="F11" si="8">PRODUCT(D11,E11)</f>
+        <v>942</v>
+      </c>
+      <c r="G11" s="8">
+        <v>942</v>
+      </c>
+      <c r="H11" s="8">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="8">
-        <f>SUM(G3:G10)</f>
-        <v>6579.93</v>
-      </c>
-      <c r="H11" s="8">
-        <f>SUM(H3:H10)</f>
-        <v>6580.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="11" t="s">
+      <c r="G12" s="8">
+        <f>SUM(G3:G11)</f>
+        <v>7521.93</v>
+      </c>
+      <c r="H12" s="8">
+        <f>SUM(H3:H11)</f>
+        <v>7522.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8">
-        <f>SUM(H11,-G11)</f>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8">
+        <f>SUM(H12,-G12)</f>
         <v>0.56999999999970896</v>
       </c>
     </row>

--- a/sputnik/personal/ee/177ee.xlsx
+++ b/sputnik/personal/ee/177ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -493,10 +493,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -807,31 +807,59 @@
         <v>942</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>44099</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>6235</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12" si="9">SUM(C12,-C11)</f>
+        <v>200</v>
+      </c>
+      <c r="E12" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" ref="F12" si="10">PRODUCT(D12,E12)</f>
+        <v>942</v>
+      </c>
+      <c r="G12" s="8">
+        <v>942</v>
+      </c>
+      <c r="H12" s="8">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G13" s="8">
         <f>SUM(G3:G11)</f>
         <v>7521.93</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H13" s="8">
         <f>SUM(H3:H11)</f>
         <v>7522.5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="11" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8">
-        <f>SUM(H12,-G12)</f>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8">
+        <f>SUM(H13,-G13)</f>
         <v>0.56999999999970896</v>
       </c>
     </row>

--- a/sputnik/personal/ee/177ee.xlsx
+++ b/sputnik/personal/ee/177ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -493,10 +493,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -835,31 +835,59 @@
         <v>942</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>44130</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>6435</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13" si="11">SUM(C13,-C12)</f>
+        <v>200</v>
+      </c>
+      <c r="E13" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" ref="F13" si="12">PRODUCT(D13,E13)</f>
+        <v>942</v>
+      </c>
+      <c r="G13" s="8">
+        <v>942</v>
+      </c>
+      <c r="H13" s="8">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G14" s="8">
         <f>SUM(G3:G11)</f>
         <v>7521.93</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H14" s="8">
         <f>SUM(H3:H11)</f>
         <v>7522.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="11" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8">
-        <f>SUM(H13,-G13)</f>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8">
+        <f>SUM(H14,-G14)</f>
         <v>0.56999999999970896</v>
       </c>
     </row>

--- a/sputnik/personal/ee/177ee.xlsx
+++ b/sputnik/personal/ee/177ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -493,10 +493,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -863,31 +863,59 @@
         <v>942</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>44130</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>6635</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14" si="13">SUM(C14,-C13)</f>
+        <v>200</v>
+      </c>
+      <c r="E14" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" ref="F14" si="14">PRODUCT(D14,E14)</f>
+        <v>942</v>
+      </c>
+      <c r="G14" s="8">
+        <v>942</v>
+      </c>
+      <c r="H14" s="8">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G15" s="8">
         <f>SUM(G3:G11)</f>
         <v>7521.93</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H15" s="8">
         <f>SUM(H3:H11)</f>
         <v>7522.5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="11" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8">
-        <f>SUM(H14,-G14)</f>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8">
+        <f>SUM(H15,-G15)</f>
         <v>0.56999999999970896</v>
       </c>
     </row>

--- a/sputnik/personal/ee/177ee.xlsx
+++ b/sputnik/personal/ee/177ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -493,10 +493,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -891,31 +891,59 @@
         <v>942</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>44400</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>6735</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" ref="D15" si="15">SUM(C15,-C14)</f>
+        <v>100</v>
+      </c>
+      <c r="E15" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="F15" s="7">
+        <f t="shared" ref="F15" si="16">PRODUCT(D15,E15)</f>
+        <v>496</v>
+      </c>
+      <c r="G15" s="8">
+        <v>496</v>
+      </c>
+      <c r="H15" s="8">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G16" s="8">
         <f>SUM(G3:G11)</f>
         <v>7521.93</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H16" s="8">
         <f>SUM(H3:H11)</f>
         <v>7522.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="11" t="s">
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8">
-        <f>SUM(H15,-G15)</f>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8">
+        <f>SUM(H16,-G16)</f>
         <v>0.56999999999970896</v>
       </c>
     </row>

--- a/sputnik/personal/ee/177ee.xlsx
+++ b/sputnik/personal/ee/177ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -493,10 +493,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -919,32 +919,60 @@
         <v>496</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>44433</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>6928</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" ref="D16" si="17">SUM(C16,-C15)</f>
+        <v>193</v>
+      </c>
+      <c r="E16" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" ref="F16" si="18">PRODUCT(D16,E16)</f>
+        <v>957.28</v>
+      </c>
+      <c r="G16" s="8">
+        <v>957.28</v>
+      </c>
+      <c r="H16" s="8">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="8">
-        <f>SUM(G3:G11)</f>
-        <v>7521.93</v>
-      </c>
-      <c r="H16" s="8">
-        <f>SUM(H3:H11)</f>
-        <v>7522.5</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="11" t="s">
+      <c r="G17" s="8">
+        <f>SUM(G3:G16)</f>
+        <v>11801.210000000001</v>
+      </c>
+      <c r="H17" s="8">
+        <f>SUM(H3:H16)</f>
+        <v>11836.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8">
-        <f>SUM(H16,-G16)</f>
-        <v>0.56999999999970896</v>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8">
+        <f>SUM(H17,-G17)</f>
+        <v>35.289999999999054</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/177ee.xlsx
+++ b/sputnik/personal/ee/177ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -493,10 +493,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -947,31 +947,59 @@
         <v>992</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>44462</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>7128</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" ref="D17" si="19">SUM(C17,-C16)</f>
+        <v>200</v>
+      </c>
+      <c r="E17" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" ref="F17" si="20">PRODUCT(D17,E17)</f>
+        <v>992</v>
+      </c>
+      <c r="G17" s="8">
+        <v>992</v>
+      </c>
+      <c r="H17" s="8">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="8">
-        <f>SUM(G3:G16)</f>
-        <v>11801.210000000001</v>
-      </c>
-      <c r="H17" s="8">
-        <f>SUM(H3:H16)</f>
-        <v>11836.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="11" t="s">
+      <c r="G18" s="8">
+        <f>SUM(G3:G17)</f>
+        <v>12793.210000000001</v>
+      </c>
+      <c r="H18" s="8">
+        <f>SUM(H3:H17)</f>
+        <v>12828.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8">
-        <f>SUM(H17,-G17)</f>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8">
+        <f>SUM(H18,-G18)</f>
         <v>35.289999999999054</v>
       </c>
     </row>

--- a/sputnik/personal/ee/177ee.xlsx
+++ b/sputnik/personal/ee/177ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -493,10 +493,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -975,31 +975,59 @@
         <v>992</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>44491</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>7428</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" ref="D18" si="21">SUM(C18,-C17)</f>
+        <v>300</v>
+      </c>
+      <c r="E18" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" ref="F18" si="22">PRODUCT(D18,E18)</f>
+        <v>1488</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1488</v>
+      </c>
+      <c r="H18" s="8">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G19" s="8">
         <f>SUM(G3:G17)</f>
         <v>12793.210000000001</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H19" s="8">
         <f>SUM(H3:H17)</f>
         <v>12828.5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="11" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8">
-        <f>SUM(H18,-G18)</f>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8">
+        <f>SUM(H19,-G19)</f>
         <v>35.289999999999054</v>
       </c>
     </row>

--- a/sputnik/personal/ee/177ee.xlsx
+++ b/sputnik/personal/ee/177ee.xlsx
@@ -496,7 +496,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1013,12 +1013,12 @@
         <v>9</v>
       </c>
       <c r="G19" s="8">
-        <f>SUM(G3:G17)</f>
-        <v>12793.210000000001</v>
+        <f>SUM(G3:G18)</f>
+        <v>14281.210000000001</v>
       </c>
       <c r="H19" s="8">
-        <f>SUM(H3:H17)</f>
-        <v>12828.5</v>
+        <f>SUM(H3:H18)</f>
+        <v>14316.5</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
